--- a/ExcelReadWrite/Assets/Editor/ExcelData/con_excel_PetDto.xlsx
+++ b/ExcelReadWrite/Assets/Editor/ExcelData/con_excel_PetDto.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -273,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,11 +520,13 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ExcelReadWrite/Assets/Editor/ExcelData/con_excel_PetDto.xlsx
+++ b/ExcelReadWrite/Assets/Editor/ExcelData/con_excel_PetDto.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>技能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +243,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -273,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -530,150 +542,162 @@
     <col min="3" max="3" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
+        <v>1007</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>1008</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>